--- a/biology/Médecine/Dušan_Makovický/Dušan_Makovický.xlsx
+++ b/biology/Médecine/Dušan_Makovický/Dušan_Makovický.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Du%C5%A1an_Makovick%C3%BD</t>
+          <t>Dušan_Makovický</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dushan Petrovitch Makovitsky[1],[2] (écrit aussi Makovický, 1866-1921) était le médecin personnel d'origine slovaque de Léon Tolstoï. Ce dernier était l'hagiographe de l' auteur et il passait son temps à rédiger sur un carnet tous les faits et gestes de la famille Tolstoï.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dushan Petrovitch Makovitsky, (écrit aussi Makovický, 1866-1921) était le médecin personnel d'origine slovaque de Léon Tolstoï. Ce dernier était l'hagiographe de l' auteur et il passait son temps à rédiger sur un carnet tous les faits et gestes de la famille Tolstoï.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Du%C5%A1an_Makovick%C3%BD</t>
+          <t>Dušan_Makovický</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vécut de 1904 à 1910 (Iasnaïa Poliana).  À cette époque, il rencontra Milan Rastislav Štefánik, qui y visita Tolstoï[3].  Son journal a été publié en Union soviétique et en Pologne. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vécut de 1904 à 1910 (Iasnaïa Poliana).  À cette époque, il rencontra Milan Rastislav Štefánik, qui y visita Tolstoï.  Son journal a été publié en Union soviétique et en Pologne. 
 Il partageait avec le comte Tolstoï sa philosophie, mais divergeait à propos des Juifs qu'il méprisait. Tolstoï dira d'ailleurs à son propos : « Si les saints existaient, Makovitsky serait l'un d'eux. Mais comme les saints n'existent pas, Makovitsky a, lui aussi, sa tache qui l'empêche d'être parfait : l'antisémitisme. »
 </t>
         </is>
